--- a/src/classifier/Evaluation/Epoch-Vs-Accuracy.xlsx
+++ b/src/classifier/Evaluation/Epoch-Vs-Accuracy.xlsx
@@ -5,28 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobjohn/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobjohn/Codes/crime-heat-mapping/src/classifier/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE324724-D070-F643-B169-048FBD157938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287A2273-105C-A642-8EAF-9D6DC1688EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14320" xr2:uid="{459D68E7-78A7-D449-BB45-67791095D97D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$2:$B$17</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -396,7 +384,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" b="1"/>
-                  <a:t>Time-Step</a:t>
+                  <a:t>Best</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Accuracy</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -515,7 +511,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1067,16 +1063,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1403,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DE1DA8-2ADB-684B-BE73-A1CCDA136C3A}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1531,6 +1527,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>